--- a/Data/09_Innvandrere og inkludering/Bosetting av flyktninger/2022-tall/Bosetting av enslige mindreårige.xlsx
+++ b/Data/09_Innvandrere og inkludering/Bosetting av flyktninger/2022-tall/Bosetting av enslige mindreårige.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/even_sannes_riiser_vtfk_no/Documents/Github/Telemark/Data/09_Innvandrere og inkludering/Bosetting/2022-tall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/09_Innvandrere og inkludering/Bosetting av flyktninger/2022-tall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C34BAE28-E645-4547-9A68-E6B822A4D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31C2F748-B0F4-49A8-BF80-AE47480A9CFD}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{C34BAE28-E645-4547-9A68-E6B822A4D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D36D40-D340-4672-9269-31945421230B}"/>
   <bookViews>
-    <workbookView xWindow="57300" yWindow="30" windowWidth="19575" windowHeight="20925" xr2:uid="{1A591C47-23E7-466D-B0F1-33C5CFD5782F}"/>
+    <workbookView xWindow="19740" yWindow="0" windowWidth="37290" windowHeight="20985" activeTab="1" xr2:uid="{1A591C47-23E7-466D-B0F1-33C5CFD5782F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +511,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -617,7 +617,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA5CEB-1F7D-40E2-BA7E-70C1CE58D5CD}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,16 +779,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -800,7 +800,7 @@
       <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F3" t="s">
@@ -812,7 +812,7 @@
       <c r="H3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD79629-6A3D-4882-80C1-33A342A95531}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
